--- a/graded_result.xlsx
+++ b/graded_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,25 +646,25 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The capital of France is Paris.</t>
+          <t>The boiling point of water is 90 degrees Celsius.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The capital of France is Paris.</t>
+          <t>The boiling point of water is 100 degrees Celsius.</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -675,25 +675,25 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Paris is the capital of France.</t>
+          <t>The boiling point of water is 100 degrees Celsius.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The capital of France is Paris.</t>
+          <t>The boiling point of water is 100 degrees Celsius.</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -704,21 +704,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The capital of France is London.</t>
+          <t>Boiling point is 100 C.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The capital of France is Paris.</t>
+          <t>The boiling point of water is 100 degrees Celsius.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -733,7 +733,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The capital city of France is Paris.</t>
+          <t>The capital of France is Paris.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Berlin is the capital of France.</t>
+          <t>Paris is the capital of France.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -780,41 +780,128 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.73</v>
+        <v>0.99</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The capital of France is London.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The capital city of France is Paris.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Berlin is the capital of France.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>The capital of France is Paris.</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Bangkok is the capital of Thailand.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Bangkok is capital of Thailand</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="E16" t="n">
         <v>0.99</v>
       </c>
-      <c r="F13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
         <v>0</v>
       </c>
     </row>
